--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="424">
   <si>
     <t>국어국문</t>
   </si>
@@ -1305,6 +1306,54 @@
   <si>
     <t>학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G2" sqref="G2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1710,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1680,8 +1729,11 @@
       <c r="F1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1701,8 +1753,12 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1717,13 +1773,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1738,13 +1798,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1764,8 +1828,12 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1780,13 +1848,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1801,13 +1873,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1822,13 +1898,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1843,13 +1923,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1869,8 +1953,12 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1885,13 +1973,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1906,13 +1998,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -1927,13 +2023,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -1948,13 +2048,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -1974,8 +2078,12 @@
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -1995,8 +2103,12 @@
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2011,13 +2123,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2037,8 +2153,12 @@
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2053,13 +2173,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2074,13 +2198,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2095,13 +2223,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2116,13 +2248,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2137,13 +2273,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2158,13 +2298,17 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2179,13 +2323,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2200,13 +2348,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2221,13 +2373,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2247,8 +2403,12 @@
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2263,13 +2423,17 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2284,13 +2448,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2305,13 +2473,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2326,13 +2498,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2347,13 +2523,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2368,13 +2548,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2394,8 +2578,12 @@
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2410,13 +2598,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2436,8 +2628,12 @@
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2452,13 +2648,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2478,8 +2678,12 @@
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2494,13 +2698,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2515,13 +2723,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2536,13 +2748,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2557,13 +2773,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2583,8 +2803,12 @@
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2599,13 +2823,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2625,8 +2853,12 @@
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2641,13 +2873,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2662,13 +2898,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2688,8 +2928,12 @@
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2709,8 +2953,12 @@
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2730,8 +2978,12 @@
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2746,13 +2998,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2767,13 +3023,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2793,8 +3053,12 @@
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2814,8 +3078,12 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2830,13 +3098,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2851,13 +3123,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2877,8 +3153,12 @@
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2898,8 +3178,12 @@
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2914,13 +3198,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2935,13 +3223,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2956,13 +3248,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2982,8 +3278,12 @@
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -2998,13 +3298,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3019,13 +3323,17 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3040,13 +3348,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3061,13 +3373,17 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3082,13 +3398,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3103,13 +3423,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3124,13 +3448,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3145,13 +3473,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3166,13 +3498,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3187,13 +3523,17 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3208,13 +3548,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3229,13 +3573,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3255,8 +3603,12 @@
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3271,13 +3623,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3292,13 +3648,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3318,8 +3678,12 @@
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3334,13 +3698,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3355,13 +3723,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3376,13 +3748,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3397,13 +3773,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3418,13 +3798,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3439,13 +3823,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3465,8 +3853,12 @@
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3486,8 +3878,12 @@
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3502,13 +3898,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3528,8 +3928,12 @@
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3549,8 +3953,12 @@
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3565,13 +3973,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3586,13 +3998,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3612,8 +4028,12 @@
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3628,13 +4048,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3649,13 +4073,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3675,8 +4103,12 @@
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3691,13 +4123,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3712,13 +4148,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3733,13 +4173,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3754,13 +4198,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3775,10 +4223,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3792,7 +4244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3835,14 +4287,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-0801-7814</v>
+        <v>010-9127-4194</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3857,14 +4309,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-7570-2152</v>
+        <v>010-7944-0992</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3879,14 +4331,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3210-1673</v>
+        <v>010-3478-2203</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3901,7 +4353,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9715-9761</v>
+        <v>010-4421-6011</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
@@ -3923,14 +4375,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7905-2217</v>
+        <v>010-9615-2088</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3945,14 +4397,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7426-0385</v>
+        <v>010-3455-3277</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -3967,14 +4419,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4705-9338</v>
+        <v>010-0932-7116</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -3989,14 +4441,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3230-2276</v>
+        <v>010-5278-0926</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4011,14 +4463,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2597-8074</v>
+        <v>010-2505-7328</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4033,7 +4485,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5159-4507</v>
+        <v>010-4793-8598</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
@@ -4055,14 +4507,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8263-9350</v>
+        <v>010-3925-5998</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4077,14 +4529,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0683-6856</v>
+        <v>010-3201-3445</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4099,14 +4551,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0896-5657</v>
+        <v>010-7574-7746</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4121,14 +4573,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8158-8541</v>
+        <v>010-8505-5199</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4143,14 +4595,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0837-6119</v>
+        <v>010-2228-0751</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4165,7 +4617,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6649-0648</v>
+        <v>010-4475-8603</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
@@ -4187,14 +4639,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8915-1624</v>
+        <v>010-0722-0501</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4209,14 +4661,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7761-1881</v>
+        <v>010-6072-6893</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4231,14 +4683,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9086-1399</v>
+        <v>010-4021-4917</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4253,7 +4705,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7408-8751</v>
+        <v>010-7962-3346</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
@@ -4275,7 +4727,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4495-6859</v>
+        <v>010-8985-0565</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4297,7 +4749,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6145-1087</v>
+        <v>010-2729-6825</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
@@ -4319,14 +4771,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8082-3828</v>
+        <v>010-5537-4730</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4341,14 +4793,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4937-6776</v>
+        <v>010-6336-7922</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4363,14 +4815,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4528-0015</v>
+        <v>010-5598-0493</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4385,14 +4837,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6849-0991</v>
+        <v>010-0627-7920</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4407,14 +4859,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2703-3231</v>
+        <v>010-3629-7694</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4429,14 +4881,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9598-7665</v>
+        <v>010-1829-6880</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4451,14 +4903,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7736-6862</v>
+        <v>010-2118-5146</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4473,14 +4925,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6309-8540</v>
+        <v>010-2404-6946</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4495,14 +4947,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1493-7178</v>
+        <v>010-5516-1652</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4517,14 +4969,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0468-1605</v>
+        <v>010-5935-4247</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4539,14 +4991,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7459-7398</v>
+        <v>010-6219-3704</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4561,7 +5013,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7560-7465</v>
+        <v>010-2760-6661</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
@@ -4583,14 +5035,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4577-8307</v>
+        <v>010-9646-8194</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4605,14 +5057,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9655-6342</v>
+        <v>010-8519-3800</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4627,7 +5079,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9470-5066</v>
+        <v>010-8255-4785</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
@@ -4649,14 +5101,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3084-0661</v>
+        <v>010-0304-9441</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4671,14 +5123,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7080-1182</v>
+        <v>010-8741-0715</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4693,14 +5145,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8154-5851</v>
+        <v>010-6752-4984</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -4715,7 +5167,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8846-6032</v>
+        <v>010-4316-5202</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
@@ -4737,14 +5189,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7415-4511</v>
+        <v>010-4992-7131</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4759,14 +5211,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2348-5653</v>
+        <v>010-2033-2538</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4781,7 +5233,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1804-8984</v>
+        <v>010-2631-6566</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
@@ -4803,14 +5255,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8578-2859</v>
+        <v>010-5006-1958</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4825,14 +5277,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1668-5459</v>
+        <v>010-4751-4829</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4847,14 +5299,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9813-1570</v>
+        <v>010-6401-6976</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -4869,7 +5321,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0528-3499</v>
+        <v>010-2148-3535</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
@@ -4891,14 +5343,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6834-8931</v>
+        <v>010-6188-3494</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4913,14 +5365,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9386-1131</v>
+        <v>010-4289-7623</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4935,7 +5387,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0942-0259</v>
+        <v>010-9852-9605</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
@@ -4957,14 +5409,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8983-2552</v>
+        <v>010-8811-2666</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -4979,14 +5431,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5836-9749</v>
+        <v>010-1776-2249</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5001,7 +5453,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0421-4768</v>
+        <v>010-6444-3288</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
@@ -5023,14 +5475,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5386-1808</v>
+        <v>010-6681-1100</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5045,14 +5497,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1496-9405</v>
+        <v>010-2655-4903</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5067,7 +5519,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8925-5195</v>
+        <v>010-6743-5830</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
@@ -5089,14 +5541,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7810-0193</v>
+        <v>010-8833-4452</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5111,14 +5563,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6642-5751</v>
+        <v>010-7669-1764</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5133,14 +5585,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8592-3043</v>
+        <v>010-5145-9000</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5155,14 +5607,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5913-5267</v>
+        <v>010-8723-8963</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5177,14 +5629,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4799-4226</v>
+        <v>010-4653-6049</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5199,14 +5651,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5527-0649</v>
+        <v>010-0628-2929</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5221,7 +5673,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4583-7433</v>
+        <v>010-7231-3795</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
@@ -5243,14 +5695,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2219-5754</v>
+        <v>010-3567-4596</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5265,14 +5717,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-4279-2928</v>
+        <v>010-8141-9386</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5287,7 +5739,7 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7967-9143</v>
+        <v>010-0534-1895</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
@@ -5309,14 +5761,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2805-5855</v>
+        <v>010-2788-6648</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5331,14 +5783,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1404-5080</v>
+        <v>010-4026-5394</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5353,14 +5805,14 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6650-8460</v>
+        <v>010-0731-0507</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5375,14 +5827,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2375-9325</v>
+        <v>010-7058-3428</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5397,14 +5849,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6160-3624</v>
+        <v>010-3982-3759</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5419,14 +5871,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3876-9833</v>
+        <v>010-2672-6295</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5441,14 +5893,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1819-0629</v>
+        <v>010-3382-8529</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5463,7 +5915,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2375-5324</v>
+        <v>010-8718-8998</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
@@ -5485,14 +5937,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9846-0045</v>
+        <v>010-5112-2528</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5507,14 +5959,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0221-5871</v>
+        <v>010-0475-6077</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5529,14 +5981,14 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1144-0809</v>
+        <v>010-7042-3896</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -5551,14 +6003,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6117-2370</v>
+        <v>010-3128-7741</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5573,14 +6025,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3686-3938</v>
+        <v>010-3579-1400</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5595,7 +6047,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6800-5569</v>
+        <v>010-6418-1092</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
@@ -5617,14 +6069,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0195-9685</v>
+        <v>010-0980-4025</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5639,7 +6091,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3889-9932</v>
+        <v>010-4597-4057</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
@@ -5661,14 +6113,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3601-1554</v>
+        <v>010-4295-3175</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -5683,14 +6135,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4577-3423</v>
+        <v>010-3437-0893</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5705,14 +6157,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4689-7821</v>
+        <v>010-1970-5095</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5727,14 +6179,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8666-5292</v>
+        <v>010-4764-7017</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -5749,14 +6201,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6057-7607</v>
+        <v>010-4024-5561</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5771,7 +6223,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7610-1413</v>
+        <v>010-6982-9310</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
@@ -5793,14 +6245,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5509-2657</v>
+        <v>010-6876-7099</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5815,14 +6267,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3728-9248</v>
+        <v>010-3780-9134</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5837,14 +6289,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6981-5180</v>
+        <v>010-8086-0361</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5859,7 +6311,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6517-7535</v>
+        <v>010-3195-9238</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -5881,14 +6333,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9799-7697</v>
+        <v>010-6091-2425</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5903,14 +6355,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7739-8301</v>
+        <v>010-3257-3488</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -5925,14 +6377,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4739-2129</v>
+        <v>010-5951-2277</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5947,7 +6399,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9883-1601</v>
+        <v>010-8156-9907</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -5969,14 +6421,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6492-0206</v>
+        <v>010-0850-0893</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -5991,7 +6443,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5400-4156</v>
+        <v>010-2006-9885</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
@@ -6013,14 +6465,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4618-4403</v>
+        <v>010-9138-0299</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6035,371 +6487,2603 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>73</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
+        <v>79</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
+        <v>68</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="7"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="7"/>
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="학생성적정보" sheetId="3" r:id="rId3"/>
-    <sheet name="sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="학과정보" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="447">
   <si>
     <t>국어국문</t>
   </si>
@@ -1354,6 +1354,98 @@
   </si>
   <si>
     <t>D005</t>
+  </si>
+  <si>
+    <t>관광학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과 연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1694,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G101"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1708,9 +1800,10 @@
     <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1730,10 +1823,13 @@
         <v>410</v>
       </c>
       <c r="G1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1748,17 +1844,17 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="str">
-        <f>VLOOKUP(F2,sheet1!$A$1:$B$5,2)</f>
+      <c r="H2" t="str">
+        <f>VLOOKUP(F2,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1773,17 +1869,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="str">
-        <f>VLOOKUP(F3,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="str">
+        <f>VLOOKUP(F3,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1798,17 +1894,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="str">
-        <f>VLOOKUP(F4,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="e">
+        <f>VLOOKUP(F4,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1823,17 +1919,17 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="str">
-        <f>VLOOKUP(F5,sheet1!$A$1:$B$5,2)</f>
+      <c r="H5" t="str">
+        <f>VLOOKUP(F5,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1853,12 +1949,12 @@
       <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="str">
-        <f>VLOOKUP(F6,sheet1!$A$1:$B$5,2)</f>
+      <c r="H6" t="str">
+        <f>VLOOKUP(F6,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1873,17 +1969,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="str">
-        <f>VLOOKUP(F7,sheet1!$A$1:$B$5,2)</f>
+      <c r="H7" t="str">
+        <f>VLOOKUP(F7,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1898,17 +1994,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="str">
-        <f>VLOOKUP(F8,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="e">
+        <f>VLOOKUP(F8,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1923,17 +2019,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="str">
-        <f>VLOOKUP(F9,sheet1!$A$1:$B$5,2)</f>
+      <c r="H9" t="str">
+        <f>VLOOKUP(F9,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1948,17 +2044,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="str">
-        <f>VLOOKUP(F10,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="str">
+        <f>VLOOKUP(F10,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1973,17 +2069,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="str">
-        <f>VLOOKUP(F11,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="str">
+        <f>VLOOKUP(F11,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1998,17 +2094,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="str">
-        <f>VLOOKUP(F12,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f>VLOOKUP(F12,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -2023,17 +2119,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="str">
-        <f>VLOOKUP(F13,sheet1!$A$1:$B$5,2)</f>
+      <c r="H13" t="str">
+        <f>VLOOKUP(F13,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -2053,12 +2149,12 @@
       <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="str">
-        <f>VLOOKUP(F14,sheet1!$A$1:$B$5,2)</f>
+      <c r="H14" t="str">
+        <f>VLOOKUP(F14,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -2073,17 +2169,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-      <c r="G15" t="str">
-        <f>VLOOKUP(F15,sheet1!$A$1:$B$5,2)</f>
+      <c r="H15" t="str">
+        <f>VLOOKUP(F15,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -2098,17 +2194,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="G16" t="str">
-        <f>VLOOKUP(F16,sheet1!$A$1:$B$5,2)</f>
+      <c r="H16" t="str">
+        <f>VLOOKUP(F16,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2123,17 +2219,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="G17" t="str">
-        <f>VLOOKUP(F17,sheet1!$A$1:$B$5,2)</f>
+      <c r="H17" t="str">
+        <f>VLOOKUP(F17,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2148,17 +2244,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" t="str">
-        <f>VLOOKUP(F18,sheet1!$A$1:$B$5,2)</f>
+      <c r="H18" t="str">
+        <f>VLOOKUP(F18,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2178,12 +2274,12 @@
       <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(F19,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="str">
+        <f>VLOOKUP(F19,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2198,17 +2294,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" t="str">
-        <f>VLOOKUP(F20,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="str">
+        <f>VLOOKUP(F20,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2223,17 +2319,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="str">
-        <f>VLOOKUP(F21,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="str">
+        <f>VLOOKUP(F21,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2253,12 +2349,12 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="G22" t="str">
-        <f>VLOOKUP(F22,sheet1!$A$1:$B$5,2)</f>
+      <c r="H22" t="str">
+        <f>VLOOKUP(F22,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2273,17 +2369,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="G23" t="str">
-        <f>VLOOKUP(F23,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="e">
+        <f>VLOOKUP(F23,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2298,17 +2394,17 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
-      <c r="G24" t="str">
-        <f>VLOOKUP(F24,sheet1!$A$1:$B$5,2)</f>
+      <c r="H24" t="str">
+        <f>VLOOKUP(F24,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2323,17 +2419,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="G25" t="str">
-        <f>VLOOKUP(F25,sheet1!$A$1:$B$5,2)</f>
+      <c r="H25" t="str">
+        <f>VLOOKUP(F25,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2348,17 +2444,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-      <c r="G26" t="str">
-        <f>VLOOKUP(F26,sheet1!$A$1:$B$5,2)</f>
+      <c r="H26" t="str">
+        <f>VLOOKUP(F26,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2373,17 +2469,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-      <c r="G27" t="str">
-        <f>VLOOKUP(F27,sheet1!$A$1:$B$5,2)</f>
+      <c r="H27" t="str">
+        <f>VLOOKUP(F27,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2403,12 +2499,12 @@
       <c r="F28" t="s">
         <v>0</v>
       </c>
-      <c r="G28" t="str">
-        <f>VLOOKUP(F28,sheet1!$A$1:$B$5,2)</f>
+      <c r="H28" t="str">
+        <f>VLOOKUP(F28,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2423,17 +2519,17 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" t="str">
-        <f>VLOOKUP(F29,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="e">
+        <f>VLOOKUP(F29,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2453,12 +2549,12 @@
       <c r="F30" t="s">
         <v>5</v>
       </c>
-      <c r="G30" t="str">
-        <f>VLOOKUP(F30,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="e">
+        <f>VLOOKUP(F30,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2473,17 +2569,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="G31" t="str">
-        <f>VLOOKUP(F31,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="e">
+        <f>VLOOKUP(F31,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2503,12 +2599,12 @@
       <c r="F32" t="s">
         <v>0</v>
       </c>
-      <c r="G32" t="str">
-        <f>VLOOKUP(F32,sheet1!$A$1:$B$5,2)</f>
+      <c r="H32" t="str">
+        <f>VLOOKUP(F32,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2523,17 +2619,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="str">
-        <f>VLOOKUP(F33,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="str">
+        <f>VLOOKUP(F33,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2548,17 +2644,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-      <c r="G34" t="str">
-        <f>VLOOKUP(F34,sheet1!$A$1:$B$5,2)</f>
+      <c r="H34" t="str">
+        <f>VLOOKUP(F34,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2573,17 +2669,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" t="str">
-        <f>VLOOKUP(F35,sheet1!$A$1:$B$5,2)</f>
+      <c r="H35" t="str">
+        <f>VLOOKUP(F35,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2598,17 +2694,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="str">
-        <f>VLOOKUP(F36,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="str">
+        <f>VLOOKUP(F36,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2623,17 +2719,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-      <c r="G37" t="str">
-        <f>VLOOKUP(F37,sheet1!$A$1:$B$5,2)</f>
+      <c r="H37" t="str">
+        <f>VLOOKUP(F37,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2648,17 +2744,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="G38" t="str">
-        <f>VLOOKUP(F38,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="e">
+        <f>VLOOKUP(F38,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2673,17 +2769,17 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
-      <c r="G39" t="str">
-        <f>VLOOKUP(F39,sheet1!$A$1:$B$5,2)</f>
+      <c r="H39" t="str">
+        <f>VLOOKUP(F39,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2703,12 +2799,12 @@
       <c r="F40" t="s">
         <v>48</v>
       </c>
-      <c r="G40" t="str">
-        <f>VLOOKUP(F40,sheet1!$A$1:$B$5,2)</f>
+      <c r="H40" t="str">
+        <f>VLOOKUP(F40,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2723,17 +2819,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP(F41,sheet1!$A$1:$B$5,2)</f>
+      <c r="H41" t="str">
+        <f>VLOOKUP(F41,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2748,17 +2844,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP(F42,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="str">
+        <f>VLOOKUP(F42,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2773,17 +2869,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-      <c r="G43" t="str">
-        <f>VLOOKUP(F43,sheet1!$A$1:$B$5,2)</f>
+      <c r="H43" t="str">
+        <f>VLOOKUP(F43,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2798,17 +2894,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-      <c r="G44" t="str">
-        <f>VLOOKUP(F44,sheet1!$A$1:$B$5,2)</f>
+      <c r="H44" t="str">
+        <f>VLOOKUP(F44,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2823,17 +2919,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-      <c r="G45" t="str">
-        <f>VLOOKUP(F45,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="str">
+        <f>VLOOKUP(F45,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2848,17 +2944,17 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
-      <c r="G46" t="str">
-        <f>VLOOKUP(F46,sheet1!$A$1:$B$5,2)</f>
+      <c r="H46" t="str">
+        <f>VLOOKUP(F46,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2873,17 +2969,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-      <c r="G47" t="str">
-        <f>VLOOKUP(F47,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="e">
+        <f>VLOOKUP(F47,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2898,17 +2994,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-      <c r="G48" t="str">
-        <f>VLOOKUP(F48,sheet1!$A$1:$B$5,2)</f>
+      <c r="H48" t="str">
+        <f>VLOOKUP(F48,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2928,12 +3024,12 @@
       <c r="F49" t="s">
         <v>5</v>
       </c>
-      <c r="G49" t="str">
-        <f>VLOOKUP(F49,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="e">
+        <f>VLOOKUP(F49,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2948,17 +3044,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
-      <c r="G50" t="str">
-        <f>VLOOKUP(F50,sheet1!$A$1:$B$5,2)</f>
+      <c r="H50" t="str">
+        <f>VLOOKUP(F50,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2978,12 +3074,12 @@
       <c r="F51" t="s">
         <v>10</v>
       </c>
-      <c r="G51" t="str">
-        <f>VLOOKUP(F51,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="str">
+        <f>VLOOKUP(F51,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2998,17 +3094,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-      <c r="G52" t="str">
-        <f>VLOOKUP(F52,sheet1!$A$1:$B$5,2)</f>
+      <c r="H52" t="str">
+        <f>VLOOKUP(F52,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -3023,17 +3119,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-      <c r="G53" t="str">
-        <f>VLOOKUP(F53,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="str">
+        <f>VLOOKUP(F53,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -3048,17 +3144,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-      <c r="G54" t="str">
-        <f>VLOOKUP(F54,sheet1!$A$1:$B$5,2)</f>
+      <c r="H54" t="str">
+        <f>VLOOKUP(F54,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -3073,17 +3169,17 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="str">
-        <f>VLOOKUP(F55,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="str">
+        <f>VLOOKUP(F55,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -3098,17 +3194,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
-      <c r="G56" t="str">
-        <f>VLOOKUP(F56,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="str">
+        <f>VLOOKUP(F56,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -3123,17 +3219,17 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
-      <c r="G57" t="str">
-        <f>VLOOKUP(F57,sheet1!$A$1:$B$5,2)</f>
+      <c r="H57" t="str">
+        <f>VLOOKUP(F57,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -3148,17 +3244,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-      <c r="G58" t="str">
-        <f>VLOOKUP(F58,sheet1!$A$1:$B$5,2)</f>
+      <c r="H58" t="str">
+        <f>VLOOKUP(F58,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -3173,17 +3269,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-      <c r="G59" t="str">
-        <f>VLOOKUP(F59,sheet1!$A$1:$B$5,2)</f>
+      <c r="H59" t="str">
+        <f>VLOOKUP(F59,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -3198,17 +3294,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-      <c r="G60" t="str">
-        <f>VLOOKUP(F60,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="e">
+        <f>VLOOKUP(F60,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -3223,17 +3319,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-      <c r="G61" t="str">
-        <f>VLOOKUP(F61,sheet1!$A$1:$B$5,2)</f>
+      <c r="H61" t="str">
+        <f>VLOOKUP(F61,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -3248,17 +3344,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-      <c r="G62" t="str">
-        <f>VLOOKUP(F62,sheet1!$A$1:$B$5,2)</f>
+      <c r="H62" t="str">
+        <f>VLOOKUP(F62,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -3273,17 +3369,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-      <c r="G63" t="str">
-        <f>VLOOKUP(F63,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="e">
+        <f>VLOOKUP(F63,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -3303,12 +3399,12 @@
       <c r="F64" t="s">
         <v>0</v>
       </c>
-      <c r="G64" t="str">
-        <f>VLOOKUP(F64,sheet1!$A$1:$B$5,2)</f>
+      <c r="H64" t="str">
+        <f>VLOOKUP(F64,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3328,12 +3424,12 @@
       <c r="F65" t="s">
         <v>48</v>
       </c>
-      <c r="G65" t="str">
-        <f>VLOOKUP(F65,sheet1!$A$1:$B$5,2)</f>
+      <c r="H65" t="str">
+        <f>VLOOKUP(F65,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3348,17 +3444,17 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
-      <c r="G66" t="str">
-        <f>VLOOKUP(F66,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="e">
+        <f>VLOOKUP(F66,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3373,17 +3469,17 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-      <c r="G67" t="str">
-        <f>VLOOKUP(F67,sheet1!$A$1:$B$5,2)</f>
+      <c r="H67" t="str">
+        <f>VLOOKUP(F67,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3398,17 +3494,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-      <c r="G68" t="str">
-        <f>VLOOKUP(F68,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="str">
+        <f>VLOOKUP(F68,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3423,17 +3519,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-      <c r="G69" t="str">
-        <f>VLOOKUP(F69,sheet1!$A$1:$B$5,2)</f>
+      <c r="H69" t="str">
+        <f>VLOOKUP(F69,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3448,17 +3544,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" t="str">
-        <f>VLOOKUP(F70,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="str">
+        <f>VLOOKUP(F70,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3478,12 +3574,12 @@
       <c r="F71" t="s">
         <v>48</v>
       </c>
-      <c r="G71" t="str">
-        <f>VLOOKUP(F71,sheet1!$A$1:$B$5,2)</f>
+      <c r="H71" t="str">
+        <f>VLOOKUP(F71,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3498,17 +3594,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-      <c r="G72" t="str">
-        <f>VLOOKUP(F72,sheet1!$A$1:$B$5,2)</f>
+      <c r="H72" t="str">
+        <f>VLOOKUP(F72,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3528,12 +3624,12 @@
       <c r="F73" t="s">
         <v>48</v>
       </c>
-      <c r="G73" t="str">
-        <f>VLOOKUP(F73,sheet1!$A$1:$B$5,2)</f>
+      <c r="H73" t="str">
+        <f>VLOOKUP(F73,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3548,17 +3644,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-      <c r="G74" t="str">
-        <f>VLOOKUP(F74,sheet1!$A$1:$B$5,2)</f>
+      <c r="H74" t="str">
+        <f>VLOOKUP(F74,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3573,17 +3669,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-      <c r="G75" t="str">
-        <f>VLOOKUP(F75,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="e">
+        <f>VLOOKUP(F75,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3598,17 +3694,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-      <c r="G76" t="str">
-        <f>VLOOKUP(F76,sheet1!$A$1:$B$5,2)</f>
+      <c r="H76" t="str">
+        <f>VLOOKUP(F76,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3628,12 +3724,12 @@
       <c r="F77" t="s">
         <v>39</v>
       </c>
-      <c r="G77" t="str">
-        <f>VLOOKUP(F77,sheet1!$A$1:$B$5,2)</f>
+      <c r="H77" t="str">
+        <f>VLOOKUP(F77,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3648,17 +3744,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-      <c r="G78" t="str">
-        <f>VLOOKUP(F78,sheet1!$A$1:$B$5,2)</f>
+      <c r="H78" t="str">
+        <f>VLOOKUP(F78,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3678,12 +3774,12 @@
       <c r="F79" t="s">
         <v>48</v>
       </c>
-      <c r="G79" t="str">
-        <f>VLOOKUP(F79,sheet1!$A$1:$B$5,2)</f>
+      <c r="H79" t="str">
+        <f>VLOOKUP(F79,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3698,17 +3794,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
-      <c r="G80" t="str">
-        <f>VLOOKUP(F80,sheet1!$A$1:$B$5,2)</f>
+      <c r="H80" t="str">
+        <f>VLOOKUP(F80,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3723,17 +3819,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-      <c r="G81" t="str">
-        <f>VLOOKUP(F81,sheet1!$A$1:$B$5,2)</f>
+      <c r="H81" t="str">
+        <f>VLOOKUP(F81,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3748,17 +3844,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-      <c r="G82" t="str">
-        <f>VLOOKUP(F82,sheet1!$A$1:$B$5,2)</f>
+      <c r="H82" t="str">
+        <f>VLOOKUP(F82,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3773,17 +3869,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-      <c r="G83" t="str">
-        <f>VLOOKUP(F83,sheet1!$A$1:$B$5,2)</f>
+      <c r="H83" t="str">
+        <f>VLOOKUP(F83,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3798,17 +3894,17 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
-      <c r="G84" t="str">
-        <f>VLOOKUP(F84,sheet1!$A$1:$B$5,2)</f>
+      <c r="H84" t="str">
+        <f>VLOOKUP(F84,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3823,17 +3919,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-      <c r="G85" t="str">
-        <f>VLOOKUP(F85,sheet1!$A$1:$B$5,2)</f>
+      <c r="H85" t="str">
+        <f>VLOOKUP(F85,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3853,12 +3949,12 @@
       <c r="F86" t="s">
         <v>39</v>
       </c>
-      <c r="G86" t="str">
-        <f>VLOOKUP(F86,sheet1!$A$1:$B$5,2)</f>
+      <c r="H86" t="str">
+        <f>VLOOKUP(F86,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3873,17 +3969,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-      <c r="G87" t="str">
-        <f>VLOOKUP(F87,sheet1!$A$1:$B$5,2)</f>
+      <c r="H87" t="str">
+        <f>VLOOKUP(F87,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3898,17 +3994,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-      <c r="G88" t="str">
-        <f>VLOOKUP(F88,sheet1!$A$1:$B$5,2)</f>
+      <c r="H88" t="str">
+        <f>VLOOKUP(F88,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3923,17 +4019,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-      <c r="G89" t="str">
-        <f>VLOOKUP(F89,sheet1!$A$1:$B$5,2)</f>
+      <c r="H89" t="str">
+        <f>VLOOKUP(F89,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3953,12 +4049,12 @@
       <c r="F90" t="s">
         <v>48</v>
       </c>
-      <c r="G90" t="str">
-        <f>VLOOKUP(F90,sheet1!$A$1:$B$5,2)</f>
+      <c r="H90" t="str">
+        <f>VLOOKUP(F90,학과정보!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3973,17 +4069,17 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
-      <c r="G91" t="str">
-        <f>VLOOKUP(F91,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="str">
+        <f>VLOOKUP(F91,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3998,17 +4094,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-      <c r="G92" t="str">
-        <f>VLOOKUP(F92,sheet1!$A$1:$B$5,2)</f>
+      <c r="H92" t="str">
+        <f>VLOOKUP(F92,학과정보!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -4023,17 +4119,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-      <c r="G93" t="str">
-        <f>VLOOKUP(F93,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="str">
+        <f>VLOOKUP(F93,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -4048,17 +4144,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-      <c r="G94" t="str">
-        <f>VLOOKUP(F94,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="str">
+        <f>VLOOKUP(F94,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -4073,17 +4169,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-      <c r="G95" t="str">
-        <f>VLOOKUP(F95,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="str">
+        <f>VLOOKUP(F95,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -4098,17 +4194,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-      <c r="G96" t="str">
-        <f>VLOOKUP(F96,sheet1!$A$1:$B$5,2)</f>
+      <c r="H96" t="str">
+        <f>VLOOKUP(F96,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -4123,17 +4219,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-      <c r="G97" t="str">
-        <f>VLOOKUP(F97,sheet1!$A$1:$B$5,2)</f>
+      <c r="H97" t="str">
+        <f>VLOOKUP(F97,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -4148,17 +4244,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-      <c r="G98" t="str">
-        <f>VLOOKUP(F98,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="str">
+        <f>VLOOKUP(F98,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -4173,17 +4269,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-      <c r="G99" t="str">
-        <f>VLOOKUP(F99,sheet1!$A$1:$B$5,2)</f>
-        <v>D005</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="str">
+        <f>VLOOKUP(F99,학과정보!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -4198,17 +4294,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-      <c r="G100" t="str">
-        <f>VLOOKUP(F100,sheet1!$A$1:$B$5,2)</f>
-        <v>D001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="e">
+        <f>VLOOKUP(F100,학과정보!$A$1:$B$5,2)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -4228,8 +4324,8 @@
       <c r="F101" t="s">
         <v>0</v>
       </c>
-      <c r="G101" t="str">
-        <f>VLOOKUP(F101,sheet1!$A$1:$B$5,2)</f>
+      <c r="H101" t="str">
+        <f>VLOOKUP(F101,학과정보!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4244,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A27" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F27" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4287,14 +4383,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-9127-4194</v>
+        <v>010-1189-8709</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4309,7 +4405,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-7944-0992</v>
+        <v>010-1170-4636</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
@@ -4331,7 +4427,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3478-2203</v>
+        <v>010-7985-0777</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
@@ -4353,14 +4449,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4421-6011</v>
+        <v>010-3484-4892</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4375,14 +4471,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9615-2088</v>
+        <v>010-9975-3403</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4397,14 +4493,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3455-3277</v>
+        <v>010-2032-5217</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4419,14 +4515,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0932-7116</v>
+        <v>010-7389-1977</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4441,14 +4537,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5278-0926</v>
+        <v>010-0655-0581</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4463,7 +4559,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2505-7328</v>
+        <v>010-3199-9400</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
@@ -4485,14 +4581,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4793-8598</v>
+        <v>010-4014-3028</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4507,14 +4603,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3925-5998</v>
+        <v>010-2585-8207</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4529,7 +4625,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3201-3445</v>
+        <v>010-6277-0616</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
@@ -4551,14 +4647,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7574-7746</v>
+        <v>010-7804-8868</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4573,14 +4669,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8505-5199</v>
+        <v>010-3549-0681</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4595,14 +4691,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2228-0751</v>
+        <v>010-9119-7598</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4617,14 +4713,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4475-8603</v>
+        <v>010-8194-4160</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4639,14 +4735,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0722-0501</v>
+        <v>010-4596-9221</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4661,14 +4757,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6072-6893</v>
+        <v>010-7890-7233</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4683,7 +4779,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4021-4917</v>
+        <v>010-8429-5062</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
@@ -4705,7 +4801,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7962-3346</v>
+        <v>010-5197-8186</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
@@ -4727,14 +4823,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8985-0565</v>
+        <v>010-3779-3348</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4749,14 +4845,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2729-6825</v>
+        <v>010-7766-0456</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4771,14 +4867,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5537-4730</v>
+        <v>010-5126-5856</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4793,14 +4889,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6336-7922</v>
+        <v>010-4305-8873</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4815,14 +4911,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5598-0493</v>
+        <v>010-0343-9377</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4837,14 +4933,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0627-7920</v>
+        <v>010-4128-6776</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4859,14 +4955,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3629-7694</v>
+        <v>010-6641-9075</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4881,14 +4977,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1829-6880</v>
+        <v>010-3581-4508</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4903,14 +4999,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2118-5146</v>
+        <v>010-5216-1769</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4925,14 +5021,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2404-6946</v>
+        <v>010-8719-7447</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4947,14 +5043,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5516-1652</v>
+        <v>010-4577-2935</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4969,14 +5065,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5935-4247</v>
+        <v>010-8751-4118</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4991,7 +5087,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6219-3704</v>
+        <v>010-7944-8039</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
@@ -5013,14 +5109,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2760-6661</v>
+        <v>010-5965-5864</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -5035,14 +5131,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9646-8194</v>
+        <v>010-9409-0128</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5057,7 +5153,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8519-3800</v>
+        <v>010-1547-5855</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
@@ -5079,14 +5175,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8255-4785</v>
+        <v>010-4673-0745</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5101,7 +5197,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0304-9441</v>
+        <v>010-0990-6739</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
@@ -5123,14 +5219,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8741-0715</v>
+        <v>010-0471-0906</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5145,7 +5241,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6752-4984</v>
+        <v>010-1302-0168</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
@@ -5167,14 +5263,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4316-5202</v>
+        <v>010-6968-6330</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -5189,14 +5285,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4992-7131</v>
+        <v>010-3346-2124</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5211,14 +5307,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2033-2538</v>
+        <v>010-3627-8635</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5233,7 +5329,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2631-6566</v>
+        <v>010-6940-0521</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
@@ -5255,14 +5351,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5006-1958</v>
+        <v>010-1606-6303</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5277,14 +5373,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4751-4829</v>
+        <v>010-7330-8250</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5299,14 +5395,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6401-6976</v>
+        <v>010-9296-3730</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -5321,14 +5417,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2148-3535</v>
+        <v>010-1301-9361</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5343,14 +5439,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6188-3494</v>
+        <v>010-6256-3324</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5365,14 +5461,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4289-7623</v>
+        <v>010-3491-7524</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5387,14 +5483,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9852-9605</v>
+        <v>010-6439-4548</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5409,14 +5505,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8811-2666</v>
+        <v>010-7296-8100</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5431,14 +5527,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1776-2249</v>
+        <v>010-5281-3868</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5453,7 +5549,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6444-3288</v>
+        <v>010-1791-4025</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
@@ -5475,14 +5571,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6681-1100</v>
+        <v>010-9437-4038</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5497,14 +5593,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2655-4903</v>
+        <v>010-3609-1222</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5519,14 +5615,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6743-5830</v>
+        <v>010-3180-6527</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5541,14 +5637,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8833-4452</v>
+        <v>010-3699-5475</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5563,14 +5659,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7669-1764</v>
+        <v>010-4760-7512</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5585,14 +5681,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5145-9000</v>
+        <v>010-6500-4866</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5607,14 +5703,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8723-8963</v>
+        <v>010-6983-8394</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5629,14 +5725,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4653-6049</v>
+        <v>010-5275-1160</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5651,14 +5747,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0628-2929</v>
+        <v>010-0887-8205</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5673,14 +5769,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7231-3795</v>
+        <v>010-7901-2741</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5695,7 +5791,7 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3567-4596</v>
+        <v>010-3135-5792</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
@@ -5717,14 +5813,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-8141-9386</v>
+        <v>010-6505-3538</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5739,14 +5835,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0534-1895</v>
+        <v>010-6698-0590</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5761,14 +5857,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2788-6648</v>
+        <v>010-8083-3003</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5783,7 +5879,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4026-5394</v>
+        <v>010-4554-0477</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
@@ -5805,14 +5901,14 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0731-0507</v>
+        <v>010-6273-1772</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5827,14 +5923,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7058-3428</v>
+        <v>010-9540-9908</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5849,7 +5945,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3982-3759</v>
+        <v>010-7162-5224</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
@@ -5871,14 +5967,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2672-6295</v>
+        <v>010-8163-9955</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5893,14 +5989,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3382-8529</v>
+        <v>010-4859-4631</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5915,14 +6011,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8718-8998</v>
+        <v>010-3680-9685</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5937,14 +6033,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5112-2528</v>
+        <v>010-9981-2507</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5959,14 +6055,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0475-6077</v>
+        <v>010-0766-7664</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5981,7 +6077,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7042-3896</v>
+        <v>010-4126-7595</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -6003,14 +6099,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3128-7741</v>
+        <v>010-7166-6679</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -6025,14 +6121,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3579-1400</v>
+        <v>010-2033-1926</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6047,7 +6143,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6418-1092</v>
+        <v>010-8854-1385</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
@@ -6069,7 +6165,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0980-4025</v>
+        <v>010-9515-1566</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
@@ -6091,14 +6187,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4597-4057</v>
+        <v>010-6682-9785</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6113,14 +6209,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4295-3175</v>
+        <v>010-8625-4647</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -6135,14 +6231,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3437-0893</v>
+        <v>010-2029-3565</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6157,14 +6253,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1970-5095</v>
+        <v>010-1410-2885</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -6179,14 +6275,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4764-7017</v>
+        <v>010-7239-5286</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6201,14 +6297,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4024-5561</v>
+        <v>010-1747-9730</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -6223,7 +6319,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6982-9310</v>
+        <v>010-2396-0985</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
@@ -6245,14 +6341,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6876-7099</v>
+        <v>010-7645-8551</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -6267,14 +6363,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3780-9134</v>
+        <v>010-3516-8820</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6289,14 +6385,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8086-0361</v>
+        <v>010-0531-8012</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6311,7 +6407,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3195-9238</v>
+        <v>010-8028-1496</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -6333,14 +6429,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6091-2425</v>
+        <v>010-2033-7180</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6355,14 +6451,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3257-3488</v>
+        <v>010-8714-3580</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6377,7 +6473,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5951-2277</v>
+        <v>010-1096-3122</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
@@ -6399,14 +6495,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8156-9907</v>
+        <v>010-0707-1566</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -6421,14 +6517,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0850-0893</v>
+        <v>010-1505-8622</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6443,14 +6539,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2006-9885</v>
+        <v>010-6966-5467</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6465,7 +6561,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9138-0299</v>
+        <v>010-8660-2283</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -6525,23 +6621,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6550,23 +6646,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:F18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6575,23 +6671,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6600,11 +6696,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
@@ -6612,11 +6708,11 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6625,23 +6721,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6650,23 +6746,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
         <v>99</v>
       </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6675,23 +6771,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6700,23 +6796,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6725,23 +6821,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6750,23 +6846,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
         <v>97</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6775,23 +6871,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6804,19 +6900,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
         <v>84</v>
       </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6825,23 +6921,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6850,23 +6946,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6875,23 +6971,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6900,23 +6996,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6925,23 +7021,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6950,23 +7046,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6975,23 +7071,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7000,23 +7096,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7025,23 +7121,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
         <v>79</v>
       </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
-      </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7050,11 +7146,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
@@ -7062,11 +7158,11 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7075,11 +7171,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
@@ -7087,11 +7183,11 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7100,23 +7196,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7125,23 +7221,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7150,23 +7246,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
         <v>70</v>
       </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="2"/>
-        <v>89</v>
-      </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7175,23 +7271,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
         <v>81</v>
       </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7200,23 +7296,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7225,19 +7321,19 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
@@ -7250,23 +7346,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7275,23 +7371,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7300,23 +7396,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7325,19 +7421,19 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
@@ -7350,23 +7446,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7375,15 +7471,15 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
@@ -7391,7 +7487,7 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7400,23 +7496,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7425,23 +7521,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7450,23 +7546,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7475,23 +7571,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7500,23 +7596,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7525,23 +7621,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7550,23 +7646,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7575,23 +7671,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7600,23 +7696,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7625,23 +7721,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
         <v>94</v>
       </c>
-      <c r="D46">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7650,23 +7746,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7675,23 +7771,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7700,15 +7796,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
@@ -7716,7 +7812,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7725,23 +7821,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7750,23 +7846,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7775,23 +7871,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7800,23 +7896,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7825,23 +7921,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7850,23 +7946,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7875,23 +7971,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7900,23 +7996,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7925,23 +8021,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7950,23 +8046,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7975,23 +8071,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8000,23 +8096,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8025,23 +8121,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8050,23 +8146,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8075,23 +8171,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8100,23 +8196,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8125,23 +8221,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8150,23 +8246,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8175,23 +8271,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8200,23 +8296,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8225,23 +8321,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8250,11 +8346,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
@@ -8262,11 +8358,11 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8275,23 +8371,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8304,19 +8400,19 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8325,23 +8421,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8350,23 +8446,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8375,23 +8471,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8400,23 +8496,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8425,23 +8521,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8450,23 +8546,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8475,23 +8571,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8500,23 +8596,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8525,7 +8621,7 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
@@ -8533,15 +8629,15 @@
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8550,23 +8646,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8575,23 +8671,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8600,23 +8696,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8625,23 +8721,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8650,23 +8746,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8675,23 +8771,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8700,7 +8796,7 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
@@ -8708,15 +8804,15 @@
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8725,23 +8821,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8750,23 +8846,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8775,23 +8871,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8800,23 +8896,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8825,23 +8921,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8850,23 +8946,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8875,23 +8971,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8900,23 +8996,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8925,23 +9021,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8950,23 +9046,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8975,23 +9071,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9000,23 +9096,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -9027,55 +9123,142 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>425</v>
       </c>
       <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-923-7151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-577-2861</v>
+      </c>
+      <c r="F3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-489-3860</v>
+      </c>
+      <c r="F4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-527-9749</v>
+      </c>
+      <c r="F5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>423</v>
+      </c>
+      <c r="C6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-547-1524</v>
+      </c>
+      <c r="F6" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
